--- a/runs/run065/NotionalETEOutput065.xlsx
+++ b/runs/run065/NotionalETEOutput065.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_HIGHWIND0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0_89.MISSILE_HIGHWIND0_89</t>
+    <t>MISSILE_HIGHWIND0_457.MISSILE_HIGHWIND0_457</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND0</t>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1536.604397052394</v>
+        <v>-1540.985919687748</v>
       </c>
       <c r="J2">
-        <v>1969.091990033838</v>
+        <v>1991.050970482968</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1414.325619290072</v>
+        <v>-1468.09472982086</v>
       </c>
       <c r="J3">
-        <v>1868.796023342366</v>
+        <v>1927.373192393998</v>
       </c>
       <c r="K3">
-        <v>313.5977738057319</v>
+        <v>317.540660526738</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1435.668976431277</v>
+        <v>-1447.819922064004</v>
       </c>
       <c r="J4">
-        <v>1844.724400552938</v>
+        <v>1811.840360776692</v>
       </c>
       <c r="K4">
-        <v>593.7235406572371</v>
+        <v>620.4751630534712</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1412.103935499015</v>
+        <v>-1356.276687780261</v>
       </c>
       <c r="J5">
-        <v>1831.265247429774</v>
+        <v>1877.594945115196</v>
       </c>
       <c r="K5">
-        <v>891.1446602146407</v>
+        <v>834.3464804254245</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1337.525510397741</v>
+        <v>-1341.717681400157</v>
       </c>
       <c r="J6">
-        <v>1763.746534174752</v>
+        <v>1808.293351382586</v>
       </c>
       <c r="K6">
-        <v>1131.890794127415</v>
+        <v>1102.893613511323</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1377.20184391716</v>
+        <v>-1362.605104172965</v>
       </c>
       <c r="J7">
-        <v>1687.91474883136</v>
+        <v>1810.235535627915</v>
       </c>
       <c r="K7">
-        <v>1361.400161468772</v>
+        <v>1341.309622620759</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1295.413237427376</v>
+        <v>-1283.980325110615</v>
       </c>
       <c r="J8">
-        <v>1672.479246468493</v>
+        <v>1676.647544379668</v>
       </c>
       <c r="K8">
-        <v>1609.24316870453</v>
+        <v>1612.713207970276</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.3929251372022</v>
+        <v>-97.08524157044056</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1255.057014011246</v>
+        <v>-1303.671699585831</v>
       </c>
       <c r="J9">
-        <v>1645.907846464423</v>
+        <v>1584.365212541861</v>
       </c>
       <c r="K9">
-        <v>1737.454013664438</v>
+        <v>1799.757555151231</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>222.2132514630065</v>
+        <v>220.6026728004935</v>
       </c>
       <c r="G10">
-        <v>-80.65324100089916</v>
+        <v>-81.48474546439866</v>
       </c>
       <c r="H10">
-        <v>846.5260115924115</v>
+        <v>823.5397432202269</v>
       </c>
       <c r="I10">
-        <v>-1200.178972245933</v>
+        <v>-1261.59662745241</v>
       </c>
       <c r="J10">
-        <v>1561.455761615999</v>
+        <v>1556.915000249828</v>
       </c>
       <c r="K10">
-        <v>1971.502284740287</v>
+        <v>2005.166860692579</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.258394116923</v>
+        <v>168.7464209362721</v>
       </c>
       <c r="G11">
-        <v>-63.64513867502725</v>
+        <v>-68.92105403929197</v>
       </c>
       <c r="H11">
-        <v>1024.566163819499</v>
+        <v>1096.607781171034</v>
       </c>
       <c r="I11">
-        <v>-1216.868116390542</v>
+        <v>-1252.405161408946</v>
       </c>
       <c r="J11">
-        <v>1564.763032596807</v>
+        <v>1502.271727658463</v>
       </c>
       <c r="K11">
-        <v>2256.390811661797</v>
+        <v>2128.333279201301</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.5056447647473</v>
+        <v>138.340830180669</v>
       </c>
       <c r="G12">
-        <v>-52.20684115865151</v>
+        <v>-51.58901439279263</v>
       </c>
       <c r="H12">
-        <v>1217.643359128733</v>
+        <v>1230.423507544121</v>
       </c>
       <c r="I12">
-        <v>-1222.108334934641</v>
+        <v>-1185.113228181022</v>
       </c>
       <c r="J12">
-        <v>1536.780292950828</v>
+        <v>1515.742672476777</v>
       </c>
       <c r="K12">
-        <v>2395.711978654746</v>
+        <v>2373.660020069261</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>117.4642338685112</v>
+        <v>124.7874878383427</v>
       </c>
       <c r="G13">
-        <v>-34.57120662822231</v>
+        <v>-33.92274967982206</v>
       </c>
       <c r="H13">
-        <v>1250.470864542246</v>
+        <v>1258.582667285198</v>
       </c>
       <c r="I13">
-        <v>-1122.790336520284</v>
+        <v>-1184.980149528283</v>
       </c>
       <c r="J13">
-        <v>1454.560197657882</v>
+        <v>1522.30126470687</v>
       </c>
       <c r="K13">
-        <v>2570.925235179995</v>
+        <v>2442.720206151647</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.5991139520711</v>
+        <v>114.941609915251</v>
       </c>
       <c r="G14">
-        <v>-16.83009427197022</v>
+        <v>-17.72921742123947</v>
       </c>
       <c r="H14">
-        <v>1269.672528526588</v>
+        <v>1346.678381580542</v>
       </c>
       <c r="I14">
-        <v>-1065.83188570039</v>
+        <v>-1037.938303968689</v>
       </c>
       <c r="J14">
-        <v>1381.377355349536</v>
+        <v>1476.772962099197</v>
       </c>
       <c r="K14">
-        <v>2614.254017700011</v>
+        <v>2657.926396871672</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.2913443652001</v>
+        <v>101.1651203994674</v>
       </c>
       <c r="G15">
-        <v>-0.8794836483061603</v>
+        <v>-0.8918980292740799</v>
       </c>
       <c r="H15">
-        <v>1323.972975601739</v>
+        <v>1318.097719271239</v>
       </c>
       <c r="I15">
-        <v>-1057.966498193687</v>
+        <v>-1100.037758261769</v>
       </c>
       <c r="J15">
-        <v>1324.654326604847</v>
+        <v>1421.724522022226</v>
       </c>
       <c r="K15">
-        <v>2643.237585645048</v>
+        <v>2782.417116477938</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.13243247713012</v>
+        <v>91.16015086428459</v>
       </c>
       <c r="G16">
-        <v>16.10002136755401</v>
+        <v>16.12172209944697</v>
       </c>
       <c r="H16">
-        <v>1397.487865157127</v>
+        <v>1405.118493495374</v>
       </c>
       <c r="I16">
-        <v>-1017.821582263238</v>
+        <v>-1034.578603153876</v>
       </c>
       <c r="J16">
-        <v>1307.202074608976</v>
+        <v>1342.835381106704</v>
       </c>
       <c r="K16">
-        <v>2957.340180930233</v>
+        <v>2904.368656650864</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.78629039063094</v>
+        <v>85.94015490390609</v>
       </c>
       <c r="G17">
-        <v>32.64557626649963</v>
+        <v>32.9714956341157</v>
       </c>
       <c r="H17">
-        <v>1467.516002516965</v>
+        <v>1537.650404798376</v>
       </c>
       <c r="I17">
-        <v>-965.4159856710328</v>
+        <v>-1007.783651458646</v>
       </c>
       <c r="J17">
-        <v>1228.279902314564</v>
+        <v>1236.635276235674</v>
       </c>
       <c r="K17">
-        <v>3012.276272895758</v>
+        <v>2936.085459344108</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.97562834995762</v>
+        <v>84.90152300401799</v>
       </c>
       <c r="G18">
-        <v>50.6346209189186</v>
+        <v>50.26374434305257</v>
       </c>
       <c r="H18">
-        <v>1436.007413099509</v>
+        <v>1541.557502824331</v>
       </c>
       <c r="I18">
-        <v>-919.183385770943</v>
+        <v>-916.6437576196936</v>
       </c>
       <c r="J18">
-        <v>1197.545203453769</v>
+        <v>1273.494546575004</v>
       </c>
       <c r="K18">
-        <v>2925.009572707532</v>
+        <v>3047.845174384574</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.24011634914947</v>
+        <v>76.45492323567804</v>
       </c>
       <c r="G19">
-        <v>62.20581215642716</v>
+        <v>67.58801544032738</v>
       </c>
       <c r="H19">
-        <v>1530.606406724068</v>
+        <v>1558.374958115795</v>
       </c>
       <c r="I19">
-        <v>-880.7908010624913</v>
+        <v>-874.9415773288025</v>
       </c>
       <c r="J19">
-        <v>1228.539211851993</v>
+        <v>1140.106615360672</v>
       </c>
       <c r="K19">
-        <v>3049.820125328579</v>
+        <v>2957.259432686567</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.03693918887647</v>
+        <v>75.02869087564655</v>
       </c>
       <c r="G20">
-        <v>78.38235272116232</v>
+        <v>83.36458729315912</v>
       </c>
       <c r="H20">
-        <v>1584.961663206469</v>
+        <v>1592.848272941875</v>
       </c>
       <c r="I20">
-        <v>-852.1038636189327</v>
+        <v>-808.7720744990073</v>
       </c>
       <c r="J20">
-        <v>1085.649815123214</v>
+        <v>1177.760608310703</v>
       </c>
       <c r="K20">
-        <v>3299.037496631744</v>
+        <v>3030.411744593732</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.03782379635136</v>
+        <v>72.46665803252638</v>
       </c>
       <c r="G21">
-        <v>97.29627515206755</v>
+        <v>96.25225792088834</v>
       </c>
       <c r="H21">
-        <v>1518.174387799972</v>
+        <v>1606.937834935307</v>
       </c>
       <c r="I21">
-        <v>-805.1029490161702</v>
+        <v>-784.355930778484</v>
       </c>
       <c r="J21">
-        <v>1092.334049079223</v>
+        <v>1060.900247695047</v>
       </c>
       <c r="K21">
-        <v>3197.099548783969</v>
+        <v>3217.683397382717</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.50816881581966</v>
+        <v>65.85943550438036</v>
       </c>
       <c r="G22">
-        <v>117.2092976808309</v>
+        <v>119.844115309989</v>
       </c>
       <c r="H22">
-        <v>1623.95493328234</v>
+        <v>1647.149418771492</v>
       </c>
       <c r="I22">
-        <v>-772.3186934188672</v>
+        <v>-740.7526906866802</v>
       </c>
       <c r="J22">
-        <v>1047.323919148497</v>
+        <v>1050.226419416969</v>
       </c>
       <c r="K22">
-        <v>3282.77552150809</v>
+        <v>3096.115879741578</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.83667222792715</v>
+        <v>67.76789772773451</v>
       </c>
       <c r="G23">
-        <v>126.6545170411358</v>
+        <v>125.0268120018106</v>
       </c>
       <c r="H23">
-        <v>1588.139171382841</v>
+        <v>1652.591499250604</v>
       </c>
       <c r="I23">
-        <v>-703.5590413685709</v>
+        <v>-679.1489054409843</v>
       </c>
       <c r="J23">
-        <v>970.0591009820181</v>
+        <v>1001.38369434077</v>
       </c>
       <c r="K23">
-        <v>3163.743319222456</v>
+        <v>3188.212961519724</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.45520408300219</v>
+        <v>63.1716384032045</v>
       </c>
       <c r="G24">
-        <v>155.0532811388268</v>
+        <v>140.747209062079</v>
       </c>
       <c r="H24">
-        <v>1598.394629735136</v>
+        <v>1700.38384830162</v>
       </c>
       <c r="I24">
-        <v>-651.7235434188788</v>
+        <v>-652.3306643672629</v>
       </c>
       <c r="J24">
-        <v>906.604052033578</v>
+        <v>943.7683403216367</v>
       </c>
       <c r="K24">
-        <v>3197.130295371696</v>
+        <v>3164.175353407154</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.85271584458437</v>
+        <v>62.72645798773177</v>
       </c>
       <c r="G25">
-        <v>164.2343669532884</v>
+        <v>167.9054558366545</v>
       </c>
       <c r="H25">
-        <v>1674.821595546825</v>
+        <v>1714.009388912612</v>
       </c>
       <c r="I25">
-        <v>-623.1612744804089</v>
+        <v>-592.7522571995285</v>
       </c>
       <c r="J25">
-        <v>912.4165536773656</v>
+        <v>895.0254638039203</v>
       </c>
       <c r="K25">
-        <v>3018.332012296773</v>
+        <v>3119.783683414278</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.76356722538191</v>
+        <v>59.00462816761166</v>
       </c>
       <c r="G26">
-        <v>181.8635943306942</v>
+        <v>174.6421441526244</v>
       </c>
       <c r="H26">
-        <v>1667.174162365318</v>
+        <v>1669.812771184829</v>
       </c>
       <c r="I26">
-        <v>-534.4511093239151</v>
+        <v>-573.111356511008</v>
       </c>
       <c r="J26">
-        <v>815.3586426657841</v>
+        <v>818.762823773264</v>
       </c>
       <c r="K26">
-        <v>3111.69277406976</v>
+        <v>2975.231006854249</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.10022455239528</v>
+        <v>57.87400130305097</v>
       </c>
       <c r="G27">
-        <v>193.9875905251826</v>
+        <v>202.3224978105288</v>
       </c>
       <c r="H27">
-        <v>1780.775042369707</v>
+        <v>1650.156628184492</v>
       </c>
       <c r="I27">
-        <v>-516.1048584216203</v>
+        <v>-471.303769850705</v>
       </c>
       <c r="J27">
-        <v>791.7947352422586</v>
+        <v>783.9000631174168</v>
       </c>
       <c r="K27">
-        <v>3059.504640467549</v>
+        <v>3055.676110018487</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.04280533614804</v>
+        <v>58.4880196273865</v>
       </c>
       <c r="G28">
-        <v>206.9786046719834</v>
+        <v>210.2169500526939</v>
       </c>
       <c r="H28">
-        <v>1774.614630045435</v>
+        <v>1647.690869953611</v>
       </c>
       <c r="I28">
-        <v>-417.181538410281</v>
+        <v>-449.103004740738</v>
       </c>
       <c r="J28">
-        <v>701.1260920555537</v>
+        <v>755.540936962815</v>
       </c>
       <c r="K28">
-        <v>2858.54645012237</v>
+        <v>2896.933202452302</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.45207290903666</v>
+        <v>52.71824662846047</v>
       </c>
       <c r="G29">
-        <v>227.9574525480554</v>
+        <v>238.5119680252043</v>
       </c>
       <c r="H29">
-        <v>1705.034167279858</v>
+        <v>1654.018645409793</v>
       </c>
       <c r="I29">
-        <v>-368.5463017933425</v>
+        <v>-388.1462778442065</v>
       </c>
       <c r="J29">
-        <v>715.9995901321138</v>
+        <v>706.2313800617065</v>
       </c>
       <c r="K29">
-        <v>2791.800060767569</v>
+        <v>2762.741204401936</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.28375012589934</v>
+        <v>54.06498244405625</v>
       </c>
       <c r="G30">
-        <v>234.6093980964526</v>
+        <v>255.2872263428579</v>
       </c>
       <c r="H30">
-        <v>1840.726801599599</v>
+        <v>1731.035915897221</v>
       </c>
       <c r="I30">
-        <v>-333.7570929777867</v>
+        <v>-318.096065785095</v>
       </c>
       <c r="J30">
-        <v>665.8150654731786</v>
+        <v>643.7132229040325</v>
       </c>
       <c r="K30">
-        <v>2747.429188493092</v>
+        <v>2804.180911229558</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.90183403911787</v>
+        <v>52.9891876441539</v>
       </c>
       <c r="G31">
-        <v>250.9220943250525</v>
+        <v>273.7714705393789</v>
       </c>
       <c r="H31">
-        <v>1723.407532115969</v>
+        <v>1788.142595678654</v>
       </c>
       <c r="I31">
-        <v>-262.203932750601</v>
+        <v>-265.9438121022059</v>
       </c>
       <c r="J31">
-        <v>590.4875016402399</v>
+        <v>564.5809899293652</v>
       </c>
       <c r="K31">
-        <v>2651.75100977982</v>
+        <v>2533.989795859055</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.51777039733078</v>
+        <v>50.60843465872714</v>
       </c>
       <c r="G32">
-        <v>281.7515521848981</v>
+        <v>289.1669952429958</v>
       </c>
       <c r="H32">
-        <v>1769.969648132937</v>
+        <v>1866.29012336045</v>
       </c>
       <c r="I32">
-        <v>-205.3262525035848</v>
+        <v>-202.4145574112404</v>
       </c>
       <c r="J32">
-        <v>546.629557998989</v>
+        <v>550.0419945683612</v>
       </c>
       <c r="K32">
-        <v>2425.089045334898</v>
+        <v>2533.345746029017</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.61038620819964</v>
+        <v>51.86814997299548</v>
       </c>
       <c r="G33">
-        <v>294.5424749391277</v>
+        <v>309.1553256352966</v>
       </c>
       <c r="H33">
-        <v>1732.338786544396</v>
+        <v>1752.102252583798</v>
       </c>
       <c r="I33">
-        <v>-144.777631924334</v>
+        <v>-145.1896623241051</v>
       </c>
       <c r="J33">
-        <v>485.2852815331206</v>
+        <v>495.4737146497484</v>
       </c>
       <c r="K33">
-        <v>2400.774039472619</v>
+        <v>2436.531729783001</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.10902431860631</v>
+        <v>47.53271788585851</v>
       </c>
       <c r="G34">
-        <v>316.9793309078574</v>
+        <v>300.7718801876032</v>
       </c>
       <c r="H34">
-        <v>1812.906311403086</v>
+        <v>1812.033379859505</v>
       </c>
       <c r="I34">
-        <v>-84.5849407291863</v>
+        <v>-84.99028066877324</v>
       </c>
       <c r="J34">
-        <v>451.2913100691949</v>
+        <v>429.571236138527</v>
       </c>
       <c r="K34">
-        <v>2291.869860159039</v>
+        <v>2158.006389320903</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.72394564983209</v>
+        <v>47.48417235602823</v>
       </c>
       <c r="G35">
-        <v>329.9220508985775</v>
+        <v>321.4269751482847</v>
       </c>
       <c r="H35">
-        <v>1763.88495592532</v>
+        <v>1856.564254905284</v>
       </c>
       <c r="I35">
-        <v>-18.75898508002362</v>
+        <v>-18.55675938298593</v>
       </c>
       <c r="J35">
-        <v>409.5003176963127</v>
+        <v>390.3781766495125</v>
       </c>
       <c r="K35">
-        <v>2047.069791616399</v>
+        <v>2065.197018385343</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.85955306621665</v>
+        <v>45.63092272814314</v>
       </c>
       <c r="G36">
-        <v>343.2473210912316</v>
+        <v>329.4707392543319</v>
       </c>
       <c r="H36">
-        <v>1880.644300667809</v>
+        <v>1757.523385895038</v>
       </c>
       <c r="I36">
-        <v>45.22004712651162</v>
+        <v>47.48607549711279</v>
       </c>
       <c r="J36">
-        <v>335.2561207994354</v>
+        <v>334.5417195768715</v>
       </c>
       <c r="K36">
-        <v>1823.170750403536</v>
+        <v>1858.240458957225</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.50938271312216</v>
+        <v>45.72894136308401</v>
       </c>
       <c r="G37">
-        <v>366.1283907079329</v>
+        <v>349.3270404192781</v>
       </c>
       <c r="H37">
-        <v>1811.584554799286</v>
+        <v>1754.62684871995</v>
       </c>
       <c r="I37">
-        <v>112.4970581248775</v>
+        <v>111.7717483812328</v>
       </c>
       <c r="J37">
-        <v>297.9718038412626</v>
+        <v>310.8607455427016</v>
       </c>
       <c r="K37">
-        <v>1664.279913376233</v>
+        <v>1575.40345080885</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.74168460725186</v>
+        <v>46.81581929440055</v>
       </c>
       <c r="G38">
-        <v>371.0197668441471</v>
+        <v>388.3866334411163</v>
       </c>
       <c r="H38">
-        <v>1835.056585238338</v>
+        <v>1870.545861281372</v>
       </c>
       <c r="I38">
-        <v>188.1802450999984</v>
+        <v>182.9484301467382</v>
       </c>
       <c r="J38">
-        <v>236.6316796555533</v>
+        <v>250.9914486758561</v>
       </c>
       <c r="K38">
-        <v>1379.355946153057</v>
+        <v>1348.837327851813</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.59196230692437</v>
+        <v>46.23386527926736</v>
       </c>
       <c r="G39">
-        <v>377.240198127024</v>
+        <v>402.6512114790914</v>
       </c>
       <c r="H39">
-        <v>1916.972592421263</v>
+        <v>1925.172227208134</v>
       </c>
       <c r="I39">
-        <v>243.851168853563</v>
+        <v>261.7684212886854</v>
       </c>
       <c r="J39">
-        <v>190.9633828329983</v>
+        <v>197.444391922204</v>
       </c>
       <c r="K39">
-        <v>1158.192530308693</v>
+        <v>1171.87784961329</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.31849737189381</v>
+        <v>42.31532029512804</v>
       </c>
       <c r="G40">
-        <v>405.2727903735046</v>
+        <v>411.2711489746836</v>
       </c>
       <c r="H40">
-        <v>1857.625692731456</v>
+        <v>1957.664660652935</v>
       </c>
       <c r="I40">
-        <v>332.8369230645646</v>
+        <v>330.3338206274341</v>
       </c>
       <c r="J40">
-        <v>156.6360716213784</v>
+        <v>154.9575158822003</v>
       </c>
       <c r="K40">
-        <v>931.2905943729454</v>
+        <v>920.0566984111086</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.30618620351036</v>
+        <v>42.40523915302793</v>
       </c>
       <c r="G41">
-        <v>411.4792501928151</v>
+        <v>435.7239767066234</v>
       </c>
       <c r="H41">
-        <v>1893.126996887504</v>
+        <v>1900.697867712991</v>
       </c>
       <c r="I41">
-        <v>396.6602498973402</v>
+        <v>408.4419674444036</v>
       </c>
       <c r="J41">
-        <v>99.13438733778301</v>
+        <v>102.1786475025088</v>
       </c>
       <c r="K41">
-        <v>639.1785454630924</v>
+        <v>604.3226407735006</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.46538789251788</v>
+        <v>41.35581614579925</v>
       </c>
       <c r="G42">
-        <v>435.990726607646</v>
+        <v>465.0667075100346</v>
       </c>
       <c r="H42">
-        <v>1826.010034940484</v>
+        <v>1860.519144503713</v>
       </c>
       <c r="I42">
-        <v>482.2985625165524</v>
+        <v>480.6102419576088</v>
       </c>
       <c r="J42">
-        <v>54.49629496156201</v>
+        <v>54.18866408604131</v>
       </c>
       <c r="K42">
-        <v>324.8082332130107</v>
+        <v>332.7620318736103</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.10558325041552</v>
+        <v>43.80414537022493</v>
       </c>
       <c r="G43">
-        <v>473.6057095264214</v>
+        <v>463.9223495433712</v>
       </c>
       <c r="H43">
-        <v>1837.770735703432</v>
+        <v>1894.486712704912</v>
       </c>
       <c r="I43">
-        <v>574.9577393335046</v>
+        <v>572.1000822254694</v>
       </c>
       <c r="J43">
-        <v>5.35171344387325</v>
+        <v>5.249341820734648</v>
       </c>
       <c r="K43">
-        <v>33.69192416066944</v>
+        <v>32.69679721596886</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.44862345707269</v>
+        <v>41.87309631452221</v>
       </c>
       <c r="G44">
-        <v>497.6859826595922</v>
+        <v>499.125796901325</v>
       </c>
       <c r="H44">
-        <v>1998.060396290493</v>
+        <v>1897.379982908002</v>
       </c>
       <c r="I44">
-        <v>612.5696874730578</v>
+        <v>640.4943726985937</v>
       </c>
       <c r="J44">
-        <v>-44.22840313221814</v>
+        <v>-44.87875408028781</v>
       </c>
       <c r="K44">
-        <v>-270.8469044200244</v>
+        <v>-287.9809586795578</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.24231724034426</v>
+        <v>42.66922393666902</v>
       </c>
       <c r="G45">
-        <v>513.4571930546266</v>
+        <v>518.2615439997966</v>
       </c>
       <c r="H45">
-        <v>1953.365032303864</v>
+        <v>1985.662978525258</v>
       </c>
       <c r="I45">
-        <v>732.3326760507401</v>
+        <v>713.7742105038925</v>
       </c>
       <c r="J45">
-        <v>-94.94147560864525</v>
+        <v>-92.7159625974471</v>
       </c>
       <c r="K45">
-        <v>-645.9495135343951</v>
+        <v>-611.3399191081959</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.41635436116945</v>
+        <v>39.62567315393153</v>
       </c>
       <c r="G46">
-        <v>494.1141303818191</v>
+        <v>485.5206158883271</v>
       </c>
       <c r="H46">
-        <v>1919.385685028051</v>
+        <v>2015.291177297318</v>
       </c>
       <c r="I46">
-        <v>785.9554567091036</v>
+        <v>790.1182001067779</v>
       </c>
       <c r="J46">
-        <v>-147.4374994137999</v>
+        <v>-146.9342922720801</v>
       </c>
       <c r="K46">
-        <v>-972.6240584756291</v>
+        <v>-959.8267316914895</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.36469243989518</v>
+        <v>38.96007298950231</v>
       </c>
       <c r="G47">
-        <v>529.3795210159577</v>
+        <v>537.0599473400848</v>
       </c>
       <c r="H47">
-        <v>1965.152494904054</v>
+        <v>2016.73770430031</v>
       </c>
       <c r="I47">
-        <v>866.4902495350831</v>
+        <v>901.1557685639508</v>
       </c>
       <c r="J47">
-        <v>-191.7378653326111</v>
+        <v>-186.081214423354</v>
       </c>
       <c r="K47">
-        <v>-1287.105416812511</v>
+        <v>-1270.001909752759</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.36436585968143</v>
+        <v>40.9086697270942</v>
       </c>
       <c r="G48">
-        <v>570.3352549848768</v>
+        <v>547.0677303242943</v>
       </c>
       <c r="H48">
-        <v>2013.280761052352</v>
+        <v>1986.409098081638</v>
       </c>
       <c r="I48">
-        <v>1008.036921987857</v>
+        <v>938.3092909338592</v>
       </c>
       <c r="J48">
-        <v>-240.5082055288795</v>
+        <v>-229.9159785549538</v>
       </c>
       <c r="K48">
-        <v>-1660.979726466368</v>
+        <v>-1746.113300467932</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.28622931959637</v>
+        <v>40.33027616924248</v>
       </c>
       <c r="G49">
-        <v>546.733761804771</v>
+        <v>544.1469622977789</v>
       </c>
       <c r="H49">
-        <v>1994.918839424773</v>
+        <v>1885.841303669089</v>
       </c>
       <c r="I49">
-        <v>1108.436744291685</v>
+        <v>1036.072727623175</v>
       </c>
       <c r="J49">
-        <v>-274.9846028319932</v>
+        <v>-276.5707332552938</v>
       </c>
       <c r="K49">
-        <v>-2009.418902597611</v>
+        <v>-2152.985893765142</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.85042781469878</v>
+        <v>37.00661746830161</v>
       </c>
       <c r="G50">
-        <v>571.1795477196314</v>
+        <v>549.7237952683125</v>
       </c>
       <c r="H50">
-        <v>1881.906959471657</v>
+        <v>1866.782693157671</v>
       </c>
       <c r="I50">
-        <v>1117.802512098815</v>
+        <v>1139.757066753313</v>
       </c>
       <c r="J50">
-        <v>-330.486995782916</v>
+        <v>-320.5673157132375</v>
       </c>
       <c r="K50">
-        <v>-2496.826246439647</v>
+        <v>-2522.771858620334</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.76871767556361</v>
+        <v>37.15979003771895</v>
       </c>
       <c r="G51">
-        <v>603.9919575402455</v>
+        <v>621.1723853522385</v>
       </c>
       <c r="H51">
-        <v>2014.484595872079</v>
+        <v>1869.224691677403</v>
       </c>
       <c r="I51">
-        <v>1246.663231248473</v>
+        <v>1319.77399862224</v>
       </c>
       <c r="J51">
-        <v>-392.8815497826999</v>
+        <v>-385.6454768090707</v>
       </c>
       <c r="K51">
-        <v>-2988.795477930247</v>
+        <v>-2856.199264432702</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.35278616451389</v>
+        <v>36.13478980111283</v>
       </c>
       <c r="G52">
-        <v>636.0847929573829</v>
+        <v>610.0624481580132</v>
       </c>
       <c r="H52">
-        <v>1942.089042490717</v>
+        <v>1891.89050121813</v>
       </c>
       <c r="I52">
-        <v>1387.5973425292</v>
+        <v>1335.782708803282</v>
       </c>
       <c r="J52">
-        <v>-415.2396990595121</v>
+        <v>-426.741235302403</v>
       </c>
       <c r="K52">
-        <v>-3319.262431777577</v>
+        <v>-3334.140138779101</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.48556132215926</v>
+        <v>37.11835897402689</v>
       </c>
       <c r="G53">
-        <v>599.2471176468358</v>
+        <v>637.2363336071461</v>
       </c>
       <c r="H53">
-        <v>2049.367952199716</v>
+        <v>1880.668236812648</v>
       </c>
       <c r="I53">
-        <v>1507.015186063544</v>
+        <v>1490.531277149692</v>
       </c>
       <c r="J53">
-        <v>-488.5244386381809</v>
+        <v>-501.0995540640594</v>
       </c>
       <c r="K53">
-        <v>-3854.061550642895</v>
+        <v>-3781.673841987761</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.42729538711583</v>
+        <v>37.50830440647361</v>
       </c>
       <c r="G54">
-        <v>648.1588839279436</v>
+        <v>644.4867712546445</v>
       </c>
       <c r="H54">
-        <v>1904.38097835007</v>
+        <v>2045.575688481215</v>
       </c>
       <c r="I54">
-        <v>1486.52600042791</v>
+        <v>1496.943638009574</v>
       </c>
       <c r="J54">
-        <v>-529.4233428553683</v>
+        <v>-544.7994667210066</v>
       </c>
       <c r="K54">
-        <v>-4274.578737255402</v>
+        <v>-4238.099997379337</v>
       </c>
     </row>
   </sheetData>
